--- a/02_meter_data/daily_meter_data/whole_gas_raw/10_30.xlsx
+++ b/02_meter_data/daily_meter_data/whole_gas_raw/10_30.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -888,7 +888,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1128,7 +1128,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1320,7 +1320,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1464,7 +1464,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3240,7 +3240,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3336,7 +3336,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -4008,7 +4008,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
@@ -4440,7 +4440,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
@@ -4488,7 +4488,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
@@ -4728,7 +4728,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4968,7 +4968,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -5064,7 +5064,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -5208,7 +5208,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
@@ -5256,7 +5256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -5304,7 +5304,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -5592,7 +5592,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -5928,7 +5928,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -6024,7 +6024,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -6168,7 +6168,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -6408,7 +6408,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -6504,7 +6504,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
@@ -6600,7 +6600,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -6648,7 +6648,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
@@ -6744,7 +6744,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -6936,7 +6936,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
@@ -7128,7 +7128,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
@@ -7176,7 +7176,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
@@ -7224,7 +7224,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -7368,7 +7368,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -7416,7 +7416,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -7464,7 +7464,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -7560,7 +7560,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -7656,7 +7656,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
@@ -7704,7 +7704,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458">
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -7848,7 +7848,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -8040,7 +8040,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -8136,7 +8136,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -8184,7 +8184,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -8344,7 +8344,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -8376,7 +8376,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -8408,7 +8408,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -8424,7 +8424,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -8456,7 +8456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -10408,7 +10408,7 @@
         </is>
       </c>
       <c r="D623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -12424,7 +12424,7 @@
         </is>
       </c>
       <c r="D749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -14504,7 +14504,7 @@
         </is>
       </c>
       <c r="D879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -15240,7 +15240,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -15288,7 +15288,7 @@
         </is>
       </c>
       <c r="D928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929">
@@ -15336,7 +15336,7 @@
         </is>
       </c>
       <c r="D931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932">
@@ -15384,7 +15384,7 @@
         </is>
       </c>
       <c r="D934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935">
@@ -16744,7 +16744,7 @@
         </is>
       </c>
       <c r="D1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1020">
@@ -18616,7 +18616,7 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1137">
@@ -18632,7 +18632,7 @@
         </is>
       </c>
       <c r="D1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1138">
@@ -18666,7 +18666,7 @@
         </is>
       </c>
       <c r="D1139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -18684,7 +18684,7 @@
         </is>
       </c>
       <c r="D1140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -18764,7 +18764,7 @@
         </is>
       </c>
       <c r="D1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1146">
@@ -20828,7 +20828,7 @@
         </is>
       </c>
       <c r="D1274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
@@ -20908,7 +20908,7 @@
         </is>
       </c>
       <c r="D1279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280">
@@ -20924,7 +20924,7 @@
         </is>
       </c>
       <c r="D1280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281">
@@ -20940,7 +20940,7 @@
         </is>
       </c>
       <c r="D1281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282">
@@ -20956,7 +20956,7 @@
         </is>
       </c>
       <c r="D1282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -20972,7 +20972,7 @@
         </is>
       </c>
       <c r="D1283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284">
@@ -20988,7 +20988,7 @@
         </is>
       </c>
       <c r="D1284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285">
@@ -21004,7 +21004,7 @@
         </is>
       </c>
       <c r="D1285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286">
@@ -21020,7 +21020,7 @@
         </is>
       </c>
       <c r="D1286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287">
@@ -21036,7 +21036,7 @@
         </is>
       </c>
       <c r="D1287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="D1288" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1289">
@@ -21100,7 +21100,7 @@
         </is>
       </c>
       <c r="D1291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292">
@@ -21148,7 +21148,7 @@
         </is>
       </c>
       <c r="D1294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="D1297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298">
@@ -21244,7 +21244,7 @@
         </is>
       </c>
       <c r="D1300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301">
@@ -21292,7 +21292,7 @@
         </is>
       </c>
       <c r="D1303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304">
@@ -21340,7 +21340,7 @@
         </is>
       </c>
       <c r="D1306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307">
@@ -21388,7 +21388,7 @@
         </is>
       </c>
       <c r="D1309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -21436,7 +21436,7 @@
         </is>
       </c>
       <c r="D1312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313">
@@ -21484,7 +21484,7 @@
         </is>
       </c>
       <c r="D1315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316">
@@ -21532,7 +21532,7 @@
         </is>
       </c>
       <c r="D1318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -21580,7 +21580,7 @@
         </is>
       </c>
       <c r="D1321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322">
@@ -21628,7 +21628,7 @@
         </is>
       </c>
       <c r="D1324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325">
@@ -21676,7 +21676,7 @@
         </is>
       </c>
       <c r="D1327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -21724,7 +21724,7 @@
         </is>
       </c>
       <c r="D1330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -21772,7 +21772,7 @@
         </is>
       </c>
       <c r="D1333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -21820,7 +21820,7 @@
         </is>
       </c>
       <c r="D1336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -21868,7 +21868,7 @@
         </is>
       </c>
       <c r="D1339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -21916,7 +21916,7 @@
         </is>
       </c>
       <c r="D1342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -21964,7 +21964,7 @@
         </is>
       </c>
       <c r="D1345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -22012,7 +22012,7 @@
         </is>
       </c>
       <c r="D1348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349">
@@ -22060,7 +22060,7 @@
         </is>
       </c>
       <c r="D1351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352">
@@ -22108,7 +22108,7 @@
         </is>
       </c>
       <c r="D1354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355">
@@ -22156,7 +22156,7 @@
         </is>
       </c>
       <c r="D1357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358">
@@ -22204,7 +22204,7 @@
         </is>
       </c>
       <c r="D1360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1361">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="D1363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1364">
@@ -22300,7 +22300,7 @@
         </is>
       </c>
       <c r="D1366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -22348,7 +22348,7 @@
         </is>
       </c>
       <c r="D1369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1370">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="D1372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1373">
@@ -22444,7 +22444,7 @@
         </is>
       </c>
       <c r="D1375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1376">
@@ -22492,7 +22492,7 @@
         </is>
       </c>
       <c r="D1378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379">
@@ -22540,7 +22540,7 @@
         </is>
       </c>
       <c r="D1381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1382">
@@ -22588,7 +22588,7 @@
         </is>
       </c>
       <c r="D1384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1385">
@@ -22636,7 +22636,7 @@
         </is>
       </c>
       <c r="D1387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1388">
@@ -22684,7 +22684,7 @@
         </is>
       </c>
       <c r="D1390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1391">
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="D1393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1394">
@@ -22780,7 +22780,7 @@
         </is>
       </c>
       <c r="D1396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1397">
@@ -22828,7 +22828,7 @@
         </is>
       </c>
       <c r="D1399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1400">
@@ -22876,7 +22876,7 @@
         </is>
       </c>
       <c r="D1402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1403">
@@ -22908,7 +22908,7 @@
         </is>
       </c>
       <c r="D1404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1405">
@@ -22924,7 +22924,7 @@
         </is>
       </c>
       <c r="D1405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1406">
@@ -22972,7 +22972,7 @@
         </is>
       </c>
       <c r="D1408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1409">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="D1411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1412">
@@ -23068,7 +23068,7 @@
         </is>
       </c>
       <c r="D1414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1415">
@@ -23116,7 +23116,7 @@
         </is>
       </c>
       <c r="D1417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1418">
@@ -23164,7 +23164,7 @@
         </is>
       </c>
       <c r="D1420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1421">
@@ -23212,7 +23212,7 @@
         </is>
       </c>
       <c r="D1423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424">
@@ -23260,7 +23260,7 @@
         </is>
       </c>
       <c r="D1426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427">
@@ -23308,7 +23308,7 @@
         </is>
       </c>
       <c r="D1429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1430">
@@ -23356,7 +23356,7 @@
         </is>
       </c>
       <c r="D1432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433">
@@ -23404,7 +23404,7 @@
         </is>
       </c>
       <c r="D1435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1436">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="D1438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1439">
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="D1441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442">
@@ -23548,7 +23548,7 @@
         </is>
       </c>
       <c r="D1444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1445">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="D1447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1448">
@@ -23644,7 +23644,7 @@
         </is>
       </c>
       <c r="D1450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -23692,7 +23692,7 @@
         </is>
       </c>
       <c r="D1453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1454">
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="D1456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1457">
@@ -23788,7 +23788,7 @@
         </is>
       </c>
       <c r="D1459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1460">
@@ -23836,7 +23836,7 @@
         </is>
       </c>
       <c r="D1462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1463">
@@ -23884,7 +23884,7 @@
         </is>
       </c>
       <c r="D1465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1466">
@@ -23932,7 +23932,7 @@
         </is>
       </c>
       <c r="D1468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1469">
@@ -23980,7 +23980,7 @@
         </is>
       </c>
       <c r="D1471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -24028,7 +24028,7 @@
         </is>
       </c>
       <c r="D1474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1475">
@@ -24076,7 +24076,7 @@
         </is>
       </c>
       <c r="D1477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="D1480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481">
@@ -24172,7 +24172,7 @@
         </is>
       </c>
       <c r="D1483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1484">
@@ -24220,7 +24220,7 @@
         </is>
       </c>
       <c r="D1486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487">
@@ -24268,7 +24268,7 @@
         </is>
       </c>
       <c r="D1489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1490">
@@ -24316,7 +24316,7 @@
         </is>
       </c>
       <c r="D1492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1493">
@@ -24364,7 +24364,7 @@
         </is>
       </c>
       <c r="D1495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1496">
@@ -24412,7 +24412,7 @@
         </is>
       </c>
       <c r="D1498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1499">
@@ -24460,7 +24460,7 @@
         </is>
       </c>
       <c r="D1501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1502">
@@ -24508,7 +24508,7 @@
         </is>
       </c>
       <c r="D1504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1505">
@@ -24556,7 +24556,7 @@
         </is>
       </c>
       <c r="D1507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1508">
@@ -24604,7 +24604,7 @@
         </is>
       </c>
       <c r="D1510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511">
@@ -24652,7 +24652,7 @@
         </is>
       </c>
       <c r="D1513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1514">
@@ -24700,7 +24700,7 @@
         </is>
       </c>
       <c r="D1516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1517">
@@ -24748,7 +24748,7 @@
         </is>
       </c>
       <c r="D1519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1520">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="D1522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1523">
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="D1525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1526">
@@ -24892,7 +24892,7 @@
         </is>
       </c>
       <c r="D1528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1529">
@@ -24940,7 +24940,7 @@
         </is>
       </c>
       <c r="D1531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1532">
@@ -24988,7 +24988,7 @@
         </is>
       </c>
       <c r="D1534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1535">
@@ -25036,7 +25036,7 @@
         </is>
       </c>
       <c r="D1537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1538">
@@ -25068,7 +25068,7 @@
         </is>
       </c>
       <c r="D1539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540">
@@ -25084,7 +25084,7 @@
         </is>
       </c>
       <c r="D1540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1541">
@@ -25132,7 +25132,7 @@
         </is>
       </c>
       <c r="D1543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1544">
@@ -25180,7 +25180,7 @@
         </is>
       </c>
       <c r="D1546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1547">
@@ -25228,7 +25228,7 @@
         </is>
       </c>
       <c r="D1549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1550">
@@ -25276,7 +25276,7 @@
         </is>
       </c>
       <c r="D1552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1553">
@@ -25324,7 +25324,7 @@
         </is>
       </c>
       <c r="D1555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1556">
@@ -25372,7 +25372,7 @@
         </is>
       </c>
       <c r="D1558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1559">
@@ -25420,7 +25420,7 @@
         </is>
       </c>
       <c r="D1561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1562">
@@ -25468,7 +25468,7 @@
         </is>
       </c>
       <c r="D1564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1565">
@@ -25516,7 +25516,7 @@
         </is>
       </c>
       <c r="D1567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1568">
@@ -25564,7 +25564,7 @@
         </is>
       </c>
       <c r="D1570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1571">
@@ -25612,7 +25612,7 @@
         </is>
       </c>
       <c r="D1573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1574">
@@ -25660,7 +25660,7 @@
         </is>
       </c>
       <c r="D1576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1577">
@@ -25708,7 +25708,7 @@
         </is>
       </c>
       <c r="D1579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -25740,7 +25740,7 @@
         </is>
       </c>
       <c r="D1581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1582">
@@ -25756,7 +25756,7 @@
         </is>
       </c>
       <c r="D1582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1583">
@@ -25772,7 +25772,7 @@
         </is>
       </c>
       <c r="D1583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1584">
@@ -25788,7 +25788,7 @@
         </is>
       </c>
       <c r="D1584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1585">
@@ -25804,7 +25804,7 @@
         </is>
       </c>
       <c r="D1585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1586">
@@ -25820,7 +25820,7 @@
         </is>
       </c>
       <c r="D1586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1587">
@@ -25836,7 +25836,7 @@
         </is>
       </c>
       <c r="D1587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1588">
@@ -25852,7 +25852,7 @@
         </is>
       </c>
       <c r="D1588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1589">
@@ -25868,7 +25868,7 @@
         </is>
       </c>
       <c r="D1589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1590">
@@ -25884,7 +25884,7 @@
         </is>
       </c>
       <c r="D1590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1591">
@@ -25900,7 +25900,7 @@
         </is>
       </c>
       <c r="D1591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1592">
@@ -25916,7 +25916,7 @@
         </is>
       </c>
       <c r="D1592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1593">
@@ -25932,7 +25932,7 @@
         </is>
       </c>
       <c r="D1593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1594">
@@ -25948,7 +25948,7 @@
         </is>
       </c>
       <c r="D1594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595">
@@ -25964,7 +25964,7 @@
         </is>
       </c>
       <c r="D1595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596">
@@ -25980,7 +25980,7 @@
         </is>
       </c>
       <c r="D1596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1597">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="D1597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1598">
@@ -26012,7 +26012,7 @@
         </is>
       </c>
       <c r="D1598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1599">
@@ -26028,7 +26028,7 @@
         </is>
       </c>
       <c r="D1599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600">
@@ -26044,7 +26044,7 @@
         </is>
       </c>
       <c r="D1600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1601">
@@ -26060,7 +26060,7 @@
         </is>
       </c>
       <c r="D1601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -26076,7 +26076,7 @@
         </is>
       </c>
       <c r="D1602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1603">
@@ -26092,7 +26092,7 @@
         </is>
       </c>
       <c r="D1603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1604">
@@ -26108,7 +26108,7 @@
         </is>
       </c>
       <c r="D1604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1605">
@@ -26140,7 +26140,7 @@
         </is>
       </c>
       <c r="D1606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1607">
@@ -26156,7 +26156,7 @@
         </is>
       </c>
       <c r="D1607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1608">
@@ -26172,7 +26172,7 @@
         </is>
       </c>
       <c r="D1608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1609">
@@ -26188,7 +26188,7 @@
         </is>
       </c>
       <c r="D1609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1610">
@@ -26204,7 +26204,7 @@
         </is>
       </c>
       <c r="D1610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1611">
@@ -26220,7 +26220,7 @@
         </is>
       </c>
       <c r="D1611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1612">
@@ -26236,7 +26236,7 @@
         </is>
       </c>
       <c r="D1612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1613">
@@ -26268,7 +26268,7 @@
         </is>
       </c>
       <c r="D1614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1615">
@@ -26284,7 +26284,7 @@
         </is>
       </c>
       <c r="D1615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1616">
@@ -26300,7 +26300,7 @@
         </is>
       </c>
       <c r="D1616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1617">
@@ -26316,7 +26316,7 @@
         </is>
       </c>
       <c r="D1617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1618">
@@ -26332,7 +26332,7 @@
         </is>
       </c>
       <c r="D1618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1619">
@@ -26348,7 +26348,7 @@
         </is>
       </c>
       <c r="D1619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1620">
@@ -26364,7 +26364,7 @@
         </is>
       </c>
       <c r="D1620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1621">
@@ -26380,7 +26380,7 @@
         </is>
       </c>
       <c r="D1621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="D1622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1623">
@@ -26412,7 +26412,7 @@
         </is>
       </c>
       <c r="D1623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1624">
@@ -26428,7 +26428,7 @@
         </is>
       </c>
       <c r="D1624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1625">
@@ -26444,7 +26444,7 @@
         </is>
       </c>
       <c r="D1625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626">
@@ -26460,7 +26460,7 @@
         </is>
       </c>
       <c r="D1626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1627">
@@ -26476,7 +26476,7 @@
         </is>
       </c>
       <c r="D1627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628">
@@ -26492,7 +26492,7 @@
         </is>
       </c>
       <c r="D1628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1629">
@@ -26524,7 +26524,7 @@
         </is>
       </c>
       <c r="D1630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631">
@@ -26540,7 +26540,7 @@
         </is>
       </c>
       <c r="D1631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1632">
@@ -26556,7 +26556,7 @@
         </is>
       </c>
       <c r="D1632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1633">
@@ -26572,7 +26572,7 @@
         </is>
       </c>
       <c r="D1633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1634">
@@ -26588,7 +26588,7 @@
         </is>
       </c>
       <c r="D1634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635">
@@ -26604,7 +26604,7 @@
         </is>
       </c>
       <c r="D1635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636">
@@ -26620,7 +26620,7 @@
         </is>
       </c>
       <c r="D1636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637">
@@ -26652,7 +26652,7 @@
         </is>
       </c>
       <c r="D1638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639">
@@ -26668,7 +26668,7 @@
         </is>
       </c>
       <c r="D1639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640">
@@ -26684,7 +26684,7 @@
         </is>
       </c>
       <c r="D1640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641">
@@ -26700,7 +26700,7 @@
         </is>
       </c>
       <c r="D1641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642">
@@ -26716,7 +26716,7 @@
         </is>
       </c>
       <c r="D1642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1643">
@@ -26732,7 +26732,7 @@
         </is>
       </c>
       <c r="D1643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1644">
@@ -26748,7 +26748,7 @@
         </is>
       </c>
       <c r="D1644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1645">
@@ -26764,7 +26764,7 @@
         </is>
       </c>
       <c r="D1645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1646">
@@ -26780,7 +26780,7 @@
         </is>
       </c>
       <c r="D1646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="D1647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1648">
@@ -26812,7 +26812,7 @@
         </is>
       </c>
       <c r="D1648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1649">
@@ -26828,7 +26828,7 @@
         </is>
       </c>
       <c r="D1649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1650">
@@ -26844,7 +26844,7 @@
         </is>
       </c>
       <c r="D1650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1651">
@@ -26860,7 +26860,7 @@
         </is>
       </c>
       <c r="D1651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1652">
@@ -26876,7 +26876,7 @@
         </is>
       </c>
       <c r="D1652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1653">
@@ -26908,7 +26908,7 @@
         </is>
       </c>
       <c r="D1654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1655">
@@ -26924,7 +26924,7 @@
         </is>
       </c>
       <c r="D1655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1656">
@@ -26940,7 +26940,7 @@
         </is>
       </c>
       <c r="D1656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1657">
@@ -26956,7 +26956,7 @@
         </is>
       </c>
       <c r="D1657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1658">
@@ -26972,7 +26972,7 @@
         </is>
       </c>
       <c r="D1658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1659">
@@ -26988,7 +26988,7 @@
         </is>
       </c>
       <c r="D1659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1660">
@@ -27004,7 +27004,7 @@
         </is>
       </c>
       <c r="D1660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1661">
@@ -27036,7 +27036,7 @@
         </is>
       </c>
       <c r="D1662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1663">
@@ -27052,7 +27052,7 @@
         </is>
       </c>
       <c r="D1663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1664">
@@ -27068,7 +27068,7 @@
         </is>
       </c>
       <c r="D1664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1665">
@@ -27084,7 +27084,7 @@
         </is>
       </c>
       <c r="D1665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1666">
@@ -27100,7 +27100,7 @@
         </is>
       </c>
       <c r="D1666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1667">
@@ -27116,7 +27116,7 @@
         </is>
       </c>
       <c r="D1667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1668">
@@ -27132,7 +27132,7 @@
         </is>
       </c>
       <c r="D1668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1669">
@@ -27148,7 +27148,7 @@
         </is>
       </c>
       <c r="D1669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1670">
@@ -27164,7 +27164,7 @@
         </is>
       </c>
       <c r="D1670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1671">
@@ -27180,7 +27180,7 @@
         </is>
       </c>
       <c r="D1671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1672">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="D1672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1673">
@@ -27212,7 +27212,7 @@
         </is>
       </c>
       <c r="D1673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1674">
@@ -27228,7 +27228,7 @@
         </is>
       </c>
       <c r="D1674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1675">
@@ -27244,7 +27244,7 @@
         </is>
       </c>
       <c r="D1675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676">
@@ -27260,7 +27260,7 @@
         </is>
       </c>
       <c r="D1676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1677">
@@ -27292,7 +27292,7 @@
         </is>
       </c>
       <c r="D1678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1679">
@@ -27308,7 +27308,7 @@
         </is>
       </c>
       <c r="D1679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1680">
@@ -27324,7 +27324,7 @@
         </is>
       </c>
       <c r="D1680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681">
@@ -27340,7 +27340,7 @@
         </is>
       </c>
       <c r="D1681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1682">
@@ -27356,7 +27356,7 @@
         </is>
       </c>
       <c r="D1682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1683">
@@ -27372,7 +27372,7 @@
         </is>
       </c>
       <c r="D1683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1684">
@@ -27388,7 +27388,7 @@
         </is>
       </c>
       <c r="D1684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1685">
@@ -27420,7 +27420,7 @@
         </is>
       </c>
       <c r="D1686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1687">
@@ -27436,7 +27436,7 @@
         </is>
       </c>
       <c r="D1687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1688">
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="D1688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1689">
@@ -27468,7 +27468,7 @@
         </is>
       </c>
       <c r="D1689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1690">
@@ -27484,7 +27484,7 @@
         </is>
       </c>
       <c r="D1690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1691">
@@ -27500,7 +27500,7 @@
         </is>
       </c>
       <c r="D1691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1692">
@@ -27516,7 +27516,7 @@
         </is>
       </c>
       <c r="D1692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1693">
@@ -27532,7 +27532,7 @@
         </is>
       </c>
       <c r="D1693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1694">
@@ -27548,7 +27548,7 @@
         </is>
       </c>
       <c r="D1694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1695">
@@ -27564,7 +27564,7 @@
         </is>
       </c>
       <c r="D1695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1696">
@@ -27580,7 +27580,7 @@
         </is>
       </c>
       <c r="D1696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1697">
@@ -27596,7 +27596,7 @@
         </is>
       </c>
       <c r="D1697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1698">
@@ -27612,7 +27612,7 @@
         </is>
       </c>
       <c r="D1698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1699">
@@ -27628,7 +27628,7 @@
         </is>
       </c>
       <c r="D1699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1700">
@@ -27644,7 +27644,7 @@
         </is>
       </c>
       <c r="D1700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1701">
@@ -27660,7 +27660,7 @@
         </is>
       </c>
       <c r="D1701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702">
@@ -27676,7 +27676,7 @@
         </is>
       </c>
       <c r="D1702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1703">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="D1703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1704">
@@ -27708,7 +27708,7 @@
         </is>
       </c>
       <c r="D1704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1705">
@@ -27724,7 +27724,7 @@
         </is>
       </c>
       <c r="D1705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1706">
@@ -27740,7 +27740,7 @@
         </is>
       </c>
       <c r="D1706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707">
@@ -27756,7 +27756,7 @@
         </is>
       </c>
       <c r="D1707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1708">
@@ -27772,7 +27772,7 @@
         </is>
       </c>
       <c r="D1708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1709">
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="D1710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711">
@@ -27820,7 +27820,7 @@
         </is>
       </c>
       <c r="D1711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1712">
@@ -27836,7 +27836,7 @@
         </is>
       </c>
       <c r="D1712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1713">
@@ -27868,7 +27868,7 @@
         </is>
       </c>
       <c r="D1714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1715">
@@ -27884,7 +27884,7 @@
         </is>
       </c>
       <c r="D1715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1716">
@@ -27900,7 +27900,7 @@
         </is>
       </c>
       <c r="D1716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1717">
@@ -27916,7 +27916,7 @@
         </is>
       </c>
       <c r="D1717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1718">
@@ -27932,7 +27932,7 @@
         </is>
       </c>
       <c r="D1718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1719">
@@ -27948,7 +27948,7 @@
         </is>
       </c>
       <c r="D1719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720">
@@ -27964,7 +27964,7 @@
         </is>
       </c>
       <c r="D1720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1721">
@@ -27996,7 +27996,7 @@
         </is>
       </c>
       <c r="D1722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723">
@@ -28012,7 +28012,7 @@
         </is>
       </c>
       <c r="D1723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724">
@@ -28028,7 +28028,7 @@
         </is>
       </c>
       <c r="D1724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725">
@@ -28060,7 +28060,7 @@
         </is>
       </c>
       <c r="D1726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727">
@@ -28076,7 +28076,7 @@
         </is>
       </c>
       <c r="D1727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1728">
@@ -28092,7 +28092,7 @@
         </is>
       </c>
       <c r="D1728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729">
@@ -28108,7 +28108,7 @@
         </is>
       </c>
       <c r="D1729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730">
@@ -28124,7 +28124,7 @@
         </is>
       </c>
       <c r="D1730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731">
@@ -28140,7 +28140,7 @@
         </is>
       </c>
       <c r="D1731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1732">
@@ -28156,7 +28156,7 @@
         </is>
       </c>
       <c r="D1732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -28188,7 +28188,7 @@
         </is>
       </c>
       <c r="D1734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735">
@@ -28204,7 +28204,7 @@
         </is>
       </c>
       <c r="D1735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1736">
@@ -28220,7 +28220,7 @@
         </is>
       </c>
       <c r="D1736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1737">
@@ -28252,7 +28252,7 @@
         </is>
       </c>
       <c r="D1738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1739">
@@ -28268,7 +28268,7 @@
         </is>
       </c>
       <c r="D1739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1740">
@@ -28284,7 +28284,7 @@
         </is>
       </c>
       <c r="D1740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1741">
@@ -28300,7 +28300,7 @@
         </is>
       </c>
       <c r="D1741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1742">
@@ -28316,7 +28316,7 @@
         </is>
       </c>
       <c r="D1742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1743">
@@ -28332,7 +28332,7 @@
         </is>
       </c>
       <c r="D1743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1744">
@@ -28348,7 +28348,7 @@
         </is>
       </c>
       <c r="D1744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1745">
@@ -28380,7 +28380,7 @@
         </is>
       </c>
       <c r="D1746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1747">
@@ -28396,7 +28396,7 @@
         </is>
       </c>
       <c r="D1747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1748">
@@ -28412,7 +28412,7 @@
         </is>
       </c>
       <c r="D1748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1749">
@@ -28444,7 +28444,7 @@
         </is>
       </c>
       <c r="D1750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1751">
@@ -28460,7 +28460,7 @@
         </is>
       </c>
       <c r="D1751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1752">
@@ -28476,7 +28476,7 @@
         </is>
       </c>
       <c r="D1752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1753">
@@ -28492,7 +28492,7 @@
         </is>
       </c>
       <c r="D1753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1754">
@@ -28508,7 +28508,7 @@
         </is>
       </c>
       <c r="D1754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1755">
@@ -28524,7 +28524,7 @@
         </is>
       </c>
       <c r="D1755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1756">
@@ -28540,7 +28540,7 @@
         </is>
       </c>
       <c r="D1756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1757">
@@ -28572,7 +28572,7 @@
         </is>
       </c>
       <c r="D1758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1759">
@@ -28588,7 +28588,7 @@
         </is>
       </c>
       <c r="D1759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1760">
@@ -28604,7 +28604,7 @@
         </is>
       </c>
       <c r="D1760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1761">
@@ -28636,7 +28636,7 @@
         </is>
       </c>
       <c r="D1762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1763">
@@ -28652,7 +28652,7 @@
         </is>
       </c>
       <c r="D1763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1764">
@@ -28668,7 +28668,7 @@
         </is>
       </c>
       <c r="D1764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1765">
@@ -28684,7 +28684,7 @@
         </is>
       </c>
       <c r="D1765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1766">
@@ -28700,7 +28700,7 @@
         </is>
       </c>
       <c r="D1766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1767">
@@ -28716,7 +28716,7 @@
         </is>
       </c>
       <c r="D1767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1768">
@@ -28732,7 +28732,7 @@
         </is>
       </c>
       <c r="D1768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1769">
@@ -28764,7 +28764,7 @@
         </is>
       </c>
       <c r="D1770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1771">
@@ -28780,7 +28780,7 @@
         </is>
       </c>
       <c r="D1771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1772">
@@ -28796,7 +28796,7 @@
         </is>
       </c>
       <c r="D1772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1773">
@@ -28828,7 +28828,7 @@
         </is>
       </c>
       <c r="D1774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1775">
@@ -28844,7 +28844,7 @@
         </is>
       </c>
       <c r="D1775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1776">
@@ -28860,7 +28860,7 @@
         </is>
       </c>
       <c r="D1776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1777">
@@ -28876,7 +28876,7 @@
         </is>
       </c>
       <c r="D1777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1778">
@@ -28892,7 +28892,7 @@
         </is>
       </c>
       <c r="D1778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1779">
@@ -28908,7 +28908,7 @@
         </is>
       </c>
       <c r="D1779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1780">
@@ -28924,7 +28924,7 @@
         </is>
       </c>
       <c r="D1780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781">
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="D1782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1783">
@@ -28972,7 +28972,7 @@
         </is>
       </c>
       <c r="D1783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1784">
@@ -28988,7 +28988,7 @@
         </is>
       </c>
       <c r="D1784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1785">
@@ -29020,7 +29020,7 @@
         </is>
       </c>
       <c r="D1786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1787">
@@ -29036,7 +29036,7 @@
         </is>
       </c>
       <c r="D1787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1788">
@@ -29052,7 +29052,7 @@
         </is>
       </c>
       <c r="D1788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789">
@@ -29068,7 +29068,7 @@
         </is>
       </c>
       <c r="D1789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1790">
@@ -29084,7 +29084,7 @@
         </is>
       </c>
       <c r="D1790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1791">
@@ -29100,7 +29100,7 @@
         </is>
       </c>
       <c r="D1791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1792">
@@ -29116,7 +29116,7 @@
         </is>
       </c>
       <c r="D1792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793">
@@ -29148,7 +29148,7 @@
         </is>
       </c>
       <c r="D1794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1795">
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="D1795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1796">
@@ -29180,7 +29180,7 @@
         </is>
       </c>
       <c r="D1796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1797">
@@ -29212,7 +29212,7 @@
         </is>
       </c>
       <c r="D1798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1799">
@@ -29228,7 +29228,7 @@
         </is>
       </c>
       <c r="D1799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1800">
@@ -29244,7 +29244,7 @@
         </is>
       </c>
       <c r="D1800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1801">
@@ -29260,7 +29260,7 @@
         </is>
       </c>
       <c r="D1801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1802">
@@ -29276,7 +29276,7 @@
         </is>
       </c>
       <c r="D1802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1803">
@@ -29292,7 +29292,7 @@
         </is>
       </c>
       <c r="D1803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1804">
@@ -29308,7 +29308,7 @@
         </is>
       </c>
       <c r="D1804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1805">
@@ -29340,7 +29340,7 @@
         </is>
       </c>
       <c r="D1806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1807">
@@ -29356,7 +29356,7 @@
         </is>
       </c>
       <c r="D1807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1808">
@@ -29372,7 +29372,7 @@
         </is>
       </c>
       <c r="D1808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1809">
@@ -29404,7 +29404,7 @@
         </is>
       </c>
       <c r="D1810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1811">
@@ -29420,7 +29420,7 @@
         </is>
       </c>
       <c r="D1811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1812">
@@ -29436,7 +29436,7 @@
         </is>
       </c>
       <c r="D1812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1813">
@@ -29452,7 +29452,7 @@
         </is>
       </c>
       <c r="D1813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1814">
@@ -29468,7 +29468,7 @@
         </is>
       </c>
       <c r="D1814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1815">
@@ -29484,7 +29484,7 @@
         </is>
       </c>
       <c r="D1815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1816">
@@ -29500,7 +29500,7 @@
         </is>
       </c>
       <c r="D1816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1817">
@@ -29532,7 +29532,7 @@
         </is>
       </c>
       <c r="D1818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1819">
@@ -29548,7 +29548,7 @@
         </is>
       </c>
       <c r="D1819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1820">
@@ -29564,7 +29564,7 @@
         </is>
       </c>
       <c r="D1820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1821">
@@ -29596,7 +29596,7 @@
         </is>
       </c>
       <c r="D1822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1823">
@@ -29612,7 +29612,7 @@
         </is>
       </c>
       <c r="D1823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824">
@@ -29628,7 +29628,7 @@
         </is>
       </c>
       <c r="D1824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1825">
@@ -29644,7 +29644,7 @@
         </is>
       </c>
       <c r="D1825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1826">
@@ -29660,7 +29660,7 @@
         </is>
       </c>
       <c r="D1826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1827">
@@ -29676,7 +29676,7 @@
         </is>
       </c>
       <c r="D1827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1828">
@@ -29692,7 +29692,7 @@
         </is>
       </c>
       <c r="D1828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1829">
@@ -29708,7 +29708,7 @@
         </is>
       </c>
       <c r="D1829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1830">
@@ -29724,7 +29724,7 @@
         </is>
       </c>
       <c r="D1830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1831">
@@ -29740,7 +29740,7 @@
         </is>
       </c>
       <c r="D1831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1832">
@@ -29756,7 +29756,7 @@
         </is>
       </c>
       <c r="D1832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1833">
@@ -29788,7 +29788,7 @@
         </is>
       </c>
       <c r="D1834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1835">
@@ -29804,7 +29804,7 @@
         </is>
       </c>
       <c r="D1835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1836">
@@ -29820,7 +29820,7 @@
         </is>
       </c>
       <c r="D1836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1837">
@@ -29836,7 +29836,7 @@
         </is>
       </c>
       <c r="D1837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1838">
@@ -29852,7 +29852,7 @@
         </is>
       </c>
       <c r="D1838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1839">
@@ -29868,7 +29868,7 @@
         </is>
       </c>
       <c r="D1839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1840">
@@ -29884,7 +29884,7 @@
         </is>
       </c>
       <c r="D1840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1841">
@@ -29916,7 +29916,7 @@
         </is>
       </c>
       <c r="D1842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1843">
@@ -29932,7 +29932,7 @@
         </is>
       </c>
       <c r="D1843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1844">
@@ -29948,7 +29948,7 @@
         </is>
       </c>
       <c r="D1844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1845">
@@ -29980,7 +29980,7 @@
         </is>
       </c>
       <c r="D1846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1847">
@@ -29996,7 +29996,7 @@
         </is>
       </c>
       <c r="D1847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1848">
@@ -30012,7 +30012,7 @@
         </is>
       </c>
       <c r="D1848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1849">
@@ -30028,7 +30028,7 @@
         </is>
       </c>
       <c r="D1849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1850">
@@ -30044,7 +30044,7 @@
         </is>
       </c>
       <c r="D1850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1851">
@@ -30060,7 +30060,7 @@
         </is>
       </c>
       <c r="D1851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1852">
@@ -30076,7 +30076,7 @@
         </is>
       </c>
       <c r="D1852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853">
@@ -30108,7 +30108,7 @@
         </is>
       </c>
       <c r="D1854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1855">
@@ -30124,7 +30124,7 @@
         </is>
       </c>
       <c r="D1855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1856">
@@ -30140,7 +30140,7 @@
         </is>
       </c>
       <c r="D1856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1857">
@@ -30172,7 +30172,7 @@
         </is>
       </c>
       <c r="D1858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1859">
@@ -30188,7 +30188,7 @@
         </is>
       </c>
       <c r="D1859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1860">
@@ -30204,7 +30204,7 @@
         </is>
       </c>
       <c r="D1860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1861">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="D1861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1862">
@@ -30236,7 +30236,7 @@
         </is>
       </c>
       <c r="D1862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1863">
@@ -30252,7 +30252,7 @@
         </is>
       </c>
       <c r="D1863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1864">
@@ -30268,7 +30268,7 @@
         </is>
       </c>
       <c r="D1864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1865">
@@ -30300,7 +30300,7 @@
         </is>
       </c>
       <c r="D1866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1867">
@@ -30316,7 +30316,7 @@
         </is>
       </c>
       <c r="D1867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1868">
@@ -30332,7 +30332,7 @@
         </is>
       </c>
       <c r="D1868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1869">
@@ -30364,7 +30364,7 @@
         </is>
       </c>
       <c r="D1870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1871">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="D1871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1872">
@@ -30396,7 +30396,7 @@
         </is>
       </c>
       <c r="D1872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1873">
@@ -30412,7 +30412,7 @@
         </is>
       </c>
       <c r="D1873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1874">
@@ -30428,7 +30428,7 @@
         </is>
       </c>
       <c r="D1874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1875">
@@ -30444,7 +30444,7 @@
         </is>
       </c>
       <c r="D1875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1876">
@@ -30460,7 +30460,7 @@
         </is>
       </c>
       <c r="D1876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1877">
@@ -30492,7 +30492,7 @@
         </is>
       </c>
       <c r="D1878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1879">
@@ -30508,7 +30508,7 @@
         </is>
       </c>
       <c r="D1879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1880">
@@ -30524,7 +30524,7 @@
         </is>
       </c>
       <c r="D1880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1881">
@@ -30556,7 +30556,7 @@
         </is>
       </c>
       <c r="D1882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1883">
@@ -30572,7 +30572,7 @@
         </is>
       </c>
       <c r="D1883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1884">
@@ -30588,7 +30588,7 @@
         </is>
       </c>
       <c r="D1884" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1885">
@@ -30604,7 +30604,7 @@
         </is>
       </c>
       <c r="D1885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1886">
@@ -30620,7 +30620,7 @@
         </is>
       </c>
       <c r="D1886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1887">
@@ -30636,7 +30636,7 @@
         </is>
       </c>
       <c r="D1887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1888">
@@ -30652,7 +30652,7 @@
         </is>
       </c>
       <c r="D1888" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1889">
@@ -30684,7 +30684,7 @@
         </is>
       </c>
       <c r="D1890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1891">
@@ -30700,7 +30700,7 @@
         </is>
       </c>
       <c r="D1891" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1892">
@@ -30716,7 +30716,7 @@
         </is>
       </c>
       <c r="D1892" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1893">
@@ -30748,7 +30748,7 @@
         </is>
       </c>
       <c r="D1894" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1895">
@@ -30764,7 +30764,7 @@
         </is>
       </c>
       <c r="D1895" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1896">
@@ -30780,7 +30780,7 @@
         </is>
       </c>
       <c r="D1896" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1897">
@@ -30796,7 +30796,7 @@
         </is>
       </c>
       <c r="D1897" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1898">
@@ -30812,7 +30812,7 @@
         </is>
       </c>
       <c r="D1898" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1899">
@@ -30828,7 +30828,7 @@
         </is>
       </c>
       <c r="D1899" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1900">
@@ -30844,7 +30844,7 @@
         </is>
       </c>
       <c r="D1900" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1901">
@@ -30876,7 +30876,7 @@
         </is>
       </c>
       <c r="D1902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1903">
@@ -30892,7 +30892,7 @@
         </is>
       </c>
       <c r="D1903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1904">
@@ -30908,7 +30908,7 @@
         </is>
       </c>
       <c r="D1904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1905">
@@ -30940,7 +30940,7 @@
         </is>
       </c>
       <c r="D1906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1907">
@@ -30956,7 +30956,7 @@
         </is>
       </c>
       <c r="D1907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1908">
@@ -30972,7 +30972,7 @@
         </is>
       </c>
       <c r="D1908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1909">
@@ -30988,7 +30988,7 @@
         </is>
       </c>
       <c r="D1909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1910">
@@ -31004,7 +31004,7 @@
         </is>
       </c>
       <c r="D1910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1911">
@@ -31020,7 +31020,7 @@
         </is>
       </c>
       <c r="D1911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1912">
@@ -31036,7 +31036,7 @@
         </is>
       </c>
       <c r="D1912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1913">
@@ -31068,7 +31068,7 @@
         </is>
       </c>
       <c r="D1914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1915">
@@ -31084,7 +31084,7 @@
         </is>
       </c>
       <c r="D1915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916">
@@ -31100,7 +31100,7 @@
         </is>
       </c>
       <c r="D1916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1917">
@@ -31132,7 +31132,7 @@
         </is>
       </c>
       <c r="D1918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1919">
@@ -31148,7 +31148,7 @@
         </is>
       </c>
       <c r="D1919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1920">
@@ -31164,7 +31164,7 @@
         </is>
       </c>
       <c r="D1920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1921">
@@ -31180,7 +31180,7 @@
         </is>
       </c>
       <c r="D1921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1922">
@@ -31196,7 +31196,7 @@
         </is>
       </c>
       <c r="D1922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1923">
@@ -31212,7 +31212,7 @@
         </is>
       </c>
       <c r="D1923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924">
@@ -31228,7 +31228,7 @@
         </is>
       </c>
       <c r="D1924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1925">
@@ -31260,7 +31260,7 @@
         </is>
       </c>
       <c r="D1926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1927">
@@ -31276,7 +31276,7 @@
         </is>
       </c>
       <c r="D1927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1928">
@@ -31292,7 +31292,7 @@
         </is>
       </c>
       <c r="D1928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1929">
@@ -31324,7 +31324,7 @@
         </is>
       </c>
       <c r="D1930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1931">
@@ -31340,7 +31340,7 @@
         </is>
       </c>
       <c r="D1931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1932">
@@ -31356,7 +31356,7 @@
         </is>
       </c>
       <c r="D1932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1933">
@@ -31372,7 +31372,7 @@
         </is>
       </c>
       <c r="D1933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1934">
@@ -31388,7 +31388,7 @@
         </is>
       </c>
       <c r="D1934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1935">
@@ -31404,7 +31404,7 @@
         </is>
       </c>
       <c r="D1935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1936">
@@ -31420,7 +31420,7 @@
         </is>
       </c>
       <c r="D1936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1937">
@@ -31452,7 +31452,7 @@
         </is>
       </c>
       <c r="D1938" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1939">
@@ -31468,7 +31468,7 @@
         </is>
       </c>
       <c r="D1939" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1940">
@@ -31484,7 +31484,7 @@
         </is>
       </c>
       <c r="D1940" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1941">
@@ -31516,7 +31516,7 @@
         </is>
       </c>
       <c r="D1942" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1943">
@@ -31532,7 +31532,7 @@
         </is>
       </c>
       <c r="D1943" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1944">
@@ -31548,7 +31548,7 @@
         </is>
       </c>
       <c r="D1944" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1945">
@@ -31564,7 +31564,7 @@
         </is>
       </c>
       <c r="D1945" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1946">
@@ -31580,7 +31580,7 @@
         </is>
       </c>
       <c r="D1946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1947">
@@ -31596,7 +31596,7 @@
         </is>
       </c>
       <c r="D1947" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1948">
@@ -31612,7 +31612,7 @@
         </is>
       </c>
       <c r="D1948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1949">
@@ -31644,7 +31644,7 @@
         </is>
       </c>
       <c r="D1950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1951">
@@ -31660,7 +31660,7 @@
         </is>
       </c>
       <c r="D1951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1952">
@@ -31676,7 +31676,7 @@
         </is>
       </c>
       <c r="D1952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1953">
@@ -31708,7 +31708,7 @@
         </is>
       </c>
       <c r="D1954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1955">
@@ -31724,7 +31724,7 @@
         </is>
       </c>
       <c r="D1955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1956">
@@ -31740,7 +31740,7 @@
         </is>
       </c>
       <c r="D1956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1957">
@@ -31756,7 +31756,7 @@
         </is>
       </c>
       <c r="D1957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1958">
@@ -31772,7 +31772,7 @@
         </is>
       </c>
       <c r="D1958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1959">
@@ -31788,7 +31788,7 @@
         </is>
       </c>
       <c r="D1959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1960">
@@ -31804,7 +31804,7 @@
         </is>
       </c>
       <c r="D1960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1961">
@@ -31836,7 +31836,7 @@
         </is>
       </c>
       <c r="D1962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1963">
@@ -31852,7 +31852,7 @@
         </is>
       </c>
       <c r="D1963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1964">
@@ -31868,7 +31868,7 @@
         </is>
       </c>
       <c r="D1964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1965">
@@ -31900,7 +31900,7 @@
         </is>
       </c>
       <c r="D1966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1967">
@@ -31916,7 +31916,7 @@
         </is>
       </c>
       <c r="D1967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1968">
@@ -31932,7 +31932,7 @@
         </is>
       </c>
       <c r="D1968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1969">
@@ -31948,7 +31948,7 @@
         </is>
       </c>
       <c r="D1969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1970">
@@ -31964,7 +31964,7 @@
         </is>
       </c>
       <c r="D1970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1971">
@@ -31980,7 +31980,7 @@
         </is>
       </c>
       <c r="D1971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1972">
@@ -31996,7 +31996,7 @@
         </is>
       </c>
       <c r="D1972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1973">
@@ -32028,7 +32028,7 @@
         </is>
       </c>
       <c r="D1974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1975">
@@ -32044,7 +32044,7 @@
         </is>
       </c>
       <c r="D1975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1976">
@@ -32060,7 +32060,7 @@
         </is>
       </c>
       <c r="D1976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1977">
@@ -32092,7 +32092,7 @@
         </is>
       </c>
       <c r="D1978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1979">
@@ -32108,7 +32108,7 @@
         </is>
       </c>
       <c r="D1979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1980">
@@ -32124,7 +32124,7 @@
         </is>
       </c>
       <c r="D1980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1981">
@@ -32140,7 +32140,7 @@
         </is>
       </c>
       <c r="D1981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1982">
@@ -32156,7 +32156,7 @@
         </is>
       </c>
       <c r="D1982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1983">
@@ -32172,7 +32172,7 @@
         </is>
       </c>
       <c r="D1983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1984">
@@ -32188,7 +32188,7 @@
         </is>
       </c>
       <c r="D1984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1985">
@@ -32204,7 +32204,7 @@
         </is>
       </c>
       <c r="D1985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1986">
@@ -32220,7 +32220,7 @@
         </is>
       </c>
       <c r="D1986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1987">
@@ -32236,7 +32236,7 @@
         </is>
       </c>
       <c r="D1987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1988">
@@ -32252,7 +32252,7 @@
         </is>
       </c>
       <c r="D1988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1989">
@@ -32284,7 +32284,7 @@
         </is>
       </c>
       <c r="D1990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1991">
@@ -32300,7 +32300,7 @@
         </is>
       </c>
       <c r="D1991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1992">
@@ -32316,7 +32316,7 @@
         </is>
       </c>
       <c r="D1992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1993">
@@ -32332,7 +32332,7 @@
         </is>
       </c>
       <c r="D1993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1994">
@@ -32348,7 +32348,7 @@
         </is>
       </c>
       <c r="D1994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1995">
@@ -32364,7 +32364,7 @@
         </is>
       </c>
       <c r="D1995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1996">
@@ -32380,7 +32380,7 @@
         </is>
       </c>
       <c r="D1996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1997">
@@ -32412,7 +32412,7 @@
         </is>
       </c>
       <c r="D1998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1999">
@@ -32428,7 +32428,7 @@
         </is>
       </c>
       <c r="D1999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2000">
@@ -32444,7 +32444,7 @@
         </is>
       </c>
       <c r="D2000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2001">
@@ -32460,7 +32460,7 @@
         </is>
       </c>
       <c r="D2001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2002">
@@ -32476,7 +32476,7 @@
         </is>
       </c>
       <c r="D2002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2003">
@@ -32492,7 +32492,7 @@
         </is>
       </c>
       <c r="D2003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2004">
@@ -32508,7 +32508,7 @@
         </is>
       </c>
       <c r="D2004" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2005">
@@ -32524,7 +32524,7 @@
         </is>
       </c>
       <c r="D2005" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2006">
@@ -32540,7 +32540,7 @@
         </is>
       </c>
       <c r="D2006" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2007">
@@ -32556,7 +32556,7 @@
         </is>
       </c>
       <c r="D2007" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2008">
@@ -32572,7 +32572,7 @@
         </is>
       </c>
       <c r="D2008" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2009">
@@ -32588,7 +32588,7 @@
         </is>
       </c>
       <c r="D2009" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2010">
@@ -32604,7 +32604,7 @@
         </is>
       </c>
       <c r="D2010" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011">
@@ -32620,7 +32620,7 @@
         </is>
       </c>
       <c r="D2011" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2012">
@@ -32636,7 +32636,7 @@
         </is>
       </c>
       <c r="D2012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2013">
@@ -32652,7 +32652,7 @@
         </is>
       </c>
       <c r="D2013" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2014">
@@ -32668,7 +32668,7 @@
         </is>
       </c>
       <c r="D2014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2015">
@@ -32684,7 +32684,7 @@
         </is>
       </c>
       <c r="D2015" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2016">
@@ -32700,7 +32700,7 @@
         </is>
       </c>
       <c r="D2016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2017">
@@ -32716,7 +32716,7 @@
         </is>
       </c>
       <c r="D2017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2018">
@@ -32732,7 +32732,7 @@
         </is>
       </c>
       <c r="D2018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2019">
@@ -32748,7 +32748,7 @@
         </is>
       </c>
       <c r="D2019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2020">
@@ -32764,7 +32764,7 @@
         </is>
       </c>
       <c r="D2020" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2021">
@@ -32780,7 +32780,7 @@
         </is>
       </c>
       <c r="D2021" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2022">
@@ -32796,7 +32796,7 @@
         </is>
       </c>
       <c r="D2022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2023">
@@ -32812,7 +32812,7 @@
         </is>
       </c>
       <c r="D2023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2024">
@@ -32828,7 +32828,7 @@
         </is>
       </c>
       <c r="D2024" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2025">
@@ -32844,7 +32844,7 @@
         </is>
       </c>
       <c r="D2025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2026">
@@ -32860,7 +32860,7 @@
         </is>
       </c>
       <c r="D2026" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2027">
@@ -32876,7 +32876,7 @@
         </is>
       </c>
       <c r="D2027" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2028">
@@ -32892,7 +32892,7 @@
         </is>
       </c>
       <c r="D2028" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2029">
@@ -32908,7 +32908,7 @@
         </is>
       </c>
       <c r="D2029" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2030">
@@ -32924,7 +32924,7 @@
         </is>
       </c>
       <c r="D2030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2031">
@@ -32940,7 +32940,7 @@
         </is>
       </c>
       <c r="D2031" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2032">
@@ -32956,7 +32956,7 @@
         </is>
       </c>
       <c r="D2032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2033">
@@ -32972,7 +32972,7 @@
         </is>
       </c>
       <c r="D2033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2034">
@@ -32988,7 +32988,7 @@
         </is>
       </c>
       <c r="D2034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2035">
@@ -33004,7 +33004,7 @@
         </is>
       </c>
       <c r="D2035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2036">
@@ -33020,7 +33020,7 @@
         </is>
       </c>
       <c r="D2036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2037">
@@ -33052,7 +33052,7 @@
         </is>
       </c>
       <c r="D2038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2039">
@@ -33068,7 +33068,7 @@
         </is>
       </c>
       <c r="D2039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2040">
@@ -33084,7 +33084,7 @@
         </is>
       </c>
       <c r="D2040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2041">
@@ -33100,7 +33100,7 @@
         </is>
       </c>
       <c r="D2041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2042">
@@ -33116,7 +33116,7 @@
         </is>
       </c>
       <c r="D2042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2043">
@@ -33132,7 +33132,7 @@
         </is>
       </c>
       <c r="D2043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2044">
@@ -33148,7 +33148,7 @@
         </is>
       </c>
       <c r="D2044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2045">
@@ -33180,7 +33180,7 @@
         </is>
       </c>
       <c r="D2046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2047">
@@ -33196,7 +33196,7 @@
         </is>
       </c>
       <c r="D2047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2048">
@@ -33212,7 +33212,7 @@
         </is>
       </c>
       <c r="D2048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2049">
@@ -33228,7 +33228,7 @@
         </is>
       </c>
       <c r="D2049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2050">
@@ -33244,7 +33244,7 @@
         </is>
       </c>
       <c r="D2050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2051">
@@ -33260,7 +33260,7 @@
         </is>
       </c>
       <c r="D2051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2052">
@@ -33276,7 +33276,7 @@
         </is>
       </c>
       <c r="D2052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2053">
@@ -33292,7 +33292,7 @@
         </is>
       </c>
       <c r="D2053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2054">
@@ -33308,7 +33308,7 @@
         </is>
       </c>
       <c r="D2054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2055">
@@ -33324,7 +33324,7 @@
         </is>
       </c>
       <c r="D2055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2056">
@@ -33340,7 +33340,7 @@
         </is>
       </c>
       <c r="D2056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2057">
@@ -33356,7 +33356,7 @@
         </is>
       </c>
       <c r="D2057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2058">
@@ -33372,7 +33372,7 @@
         </is>
       </c>
       <c r="D2058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2059">
@@ -33388,7 +33388,7 @@
         </is>
       </c>
       <c r="D2059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2060">
@@ -33404,7 +33404,7 @@
         </is>
       </c>
       <c r="D2060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2061">
@@ -33436,7 +33436,7 @@
         </is>
       </c>
       <c r="D2062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2063">
@@ -33452,7 +33452,7 @@
         </is>
       </c>
       <c r="D2063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2064">
@@ -33468,7 +33468,7 @@
         </is>
       </c>
       <c r="D2064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065">
@@ -33484,7 +33484,7 @@
         </is>
       </c>
       <c r="D2065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2066">
@@ -33500,7 +33500,7 @@
         </is>
       </c>
       <c r="D2066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2067">
@@ -33516,7 +33516,7 @@
         </is>
       </c>
       <c r="D2067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2068">
@@ -33532,7 +33532,7 @@
         </is>
       </c>
       <c r="D2068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2069">
@@ -38224,7 +38224,7 @@
         </is>
       </c>
       <c r="D2361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2362">
@@ -38564,7 +38564,7 @@
         </is>
       </c>
       <c r="D2382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2383">
@@ -38580,7 +38580,7 @@
         </is>
       </c>
       <c r="D2383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2384">
@@ -38596,7 +38596,7 @@
         </is>
       </c>
       <c r="D2384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2385">
@@ -38612,7 +38612,7 @@
         </is>
       </c>
       <c r="D2385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2386">
@@ -38628,7 +38628,7 @@
         </is>
       </c>
       <c r="D2386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2387">
@@ -38644,7 +38644,7 @@
         </is>
       </c>
       <c r="D2387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2388">
@@ -38660,7 +38660,7 @@
         </is>
       </c>
       <c r="D2388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2389">
@@ -38676,7 +38676,7 @@
         </is>
       </c>
       <c r="D2389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2390">
@@ -38692,7 +38692,7 @@
         </is>
       </c>
       <c r="D2390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2391">
@@ -38708,7 +38708,7 @@
         </is>
       </c>
       <c r="D2391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2392">
@@ -38724,7 +38724,7 @@
         </is>
       </c>
       <c r="D2392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2393">
@@ -38740,7 +38740,7 @@
         </is>
       </c>
       <c r="D2393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2394">
@@ -38756,7 +38756,7 @@
         </is>
       </c>
       <c r="D2394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2395">
@@ -38772,7 +38772,7 @@
         </is>
       </c>
       <c r="D2395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2396">
@@ -38788,7 +38788,7 @@
         </is>
       </c>
       <c r="D2396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2397">
@@ -38820,7 +38820,7 @@
         </is>
       </c>
       <c r="D2398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2399">
@@ -38836,7 +38836,7 @@
         </is>
       </c>
       <c r="D2399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2400">
@@ -38852,7 +38852,7 @@
         </is>
       </c>
       <c r="D2400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2401">
@@ -38868,7 +38868,7 @@
         </is>
       </c>
       <c r="D2401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2402">
@@ -38884,7 +38884,7 @@
         </is>
       </c>
       <c r="D2402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2403">
@@ -38900,7 +38900,7 @@
         </is>
       </c>
       <c r="D2403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2404">
@@ -38916,7 +38916,7 @@
         </is>
       </c>
       <c r="D2404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2405">
@@ -38948,7 +38948,7 @@
         </is>
       </c>
       <c r="D2406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2407">
@@ -38964,7 +38964,7 @@
         </is>
       </c>
       <c r="D2407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2408">
@@ -38980,7 +38980,7 @@
         </is>
       </c>
       <c r="D2408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2409">
@@ -38996,7 +38996,7 @@
         </is>
       </c>
       <c r="D2409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2410">
@@ -39012,7 +39012,7 @@
         </is>
       </c>
       <c r="D2410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2411">
@@ -39028,7 +39028,7 @@
         </is>
       </c>
       <c r="D2411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2412">
@@ -39044,7 +39044,7 @@
         </is>
       </c>
       <c r="D2412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2413">
@@ -39060,7 +39060,7 @@
         </is>
       </c>
       <c r="D2413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2414">
@@ -39076,7 +39076,7 @@
         </is>
       </c>
       <c r="D2414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2415">
@@ -39092,7 +39092,7 @@
         </is>
       </c>
       <c r="D2415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2416">
@@ -39108,7 +39108,7 @@
         </is>
       </c>
       <c r="D2416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2417">
@@ -39124,7 +39124,7 @@
         </is>
       </c>
       <c r="D2417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2418">
@@ -39140,7 +39140,7 @@
         </is>
       </c>
       <c r="D2418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2419">
@@ -39156,7 +39156,7 @@
         </is>
       </c>
       <c r="D2419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2420">
@@ -39172,7 +39172,7 @@
         </is>
       </c>
       <c r="D2420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2421">
@@ -39204,7 +39204,7 @@
         </is>
       </c>
       <c r="D2422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2423">
@@ -39220,7 +39220,7 @@
         </is>
       </c>
       <c r="D2423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2424">
@@ -39236,7 +39236,7 @@
         </is>
       </c>
       <c r="D2424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2425">
@@ -39252,7 +39252,7 @@
         </is>
       </c>
       <c r="D2425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2426">
@@ -39268,7 +39268,7 @@
         </is>
       </c>
       <c r="D2426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2427">
@@ -39284,7 +39284,7 @@
         </is>
       </c>
       <c r="D2427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2428">
@@ -39300,7 +39300,7 @@
         </is>
       </c>
       <c r="D2428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2429">
@@ -39332,7 +39332,7 @@
         </is>
       </c>
       <c r="D2430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2431">
@@ -39348,7 +39348,7 @@
         </is>
       </c>
       <c r="D2431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2432">
@@ -39364,7 +39364,7 @@
         </is>
       </c>
       <c r="D2432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2433">
@@ -39380,7 +39380,7 @@
         </is>
       </c>
       <c r="D2433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2434">
@@ -39396,7 +39396,7 @@
         </is>
       </c>
       <c r="D2434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2435">
@@ -39412,7 +39412,7 @@
         </is>
       </c>
       <c r="D2435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2436">
@@ -39428,7 +39428,7 @@
         </is>
       </c>
       <c r="D2436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2437">
@@ -39444,7 +39444,7 @@
         </is>
       </c>
       <c r="D2437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2438">
@@ -39460,7 +39460,7 @@
         </is>
       </c>
       <c r="D2438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2439">
@@ -39476,7 +39476,7 @@
         </is>
       </c>
       <c r="D2439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2440">
@@ -39492,7 +39492,7 @@
         </is>
       </c>
       <c r="D2440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2441">
@@ -39508,7 +39508,7 @@
         </is>
       </c>
       <c r="D2441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2442">
@@ -39524,7 +39524,7 @@
         </is>
       </c>
       <c r="D2442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2443">
@@ -39540,7 +39540,7 @@
         </is>
       </c>
       <c r="D2443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2444">
@@ -39556,7 +39556,7 @@
         </is>
       </c>
       <c r="D2444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445">
@@ -39588,7 +39588,7 @@
         </is>
       </c>
       <c r="D2446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2447">
@@ -39604,7 +39604,7 @@
         </is>
       </c>
       <c r="D2447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448">
@@ -39620,7 +39620,7 @@
         </is>
       </c>
       <c r="D2448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449">
@@ -39636,7 +39636,7 @@
         </is>
       </c>
       <c r="D2449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450">
@@ -39652,7 +39652,7 @@
         </is>
       </c>
       <c r="D2450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451">
@@ -39668,7 +39668,7 @@
         </is>
       </c>
       <c r="D2451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452">
@@ -39684,7 +39684,7 @@
         </is>
       </c>
       <c r="D2452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453">
@@ -39716,7 +39716,7 @@
         </is>
       </c>
       <c r="D2454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2455">
@@ -39732,7 +39732,7 @@
         </is>
       </c>
       <c r="D2455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2456">
@@ -39748,7 +39748,7 @@
         </is>
       </c>
       <c r="D2456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457">
@@ -39764,7 +39764,7 @@
         </is>
       </c>
       <c r="D2457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2458">
@@ -39780,7 +39780,7 @@
         </is>
       </c>
       <c r="D2458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459">
@@ -39796,7 +39796,7 @@
         </is>
       </c>
       <c r="D2459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2460">
@@ -39812,7 +39812,7 @@
         </is>
       </c>
       <c r="D2460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461">
@@ -39828,7 +39828,7 @@
         </is>
       </c>
       <c r="D2461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462">
@@ -39844,7 +39844,7 @@
         </is>
       </c>
       <c r="D2462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463">
@@ -39860,7 +39860,7 @@
         </is>
       </c>
       <c r="D2463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464">
@@ -39876,7 +39876,7 @@
         </is>
       </c>
       <c r="D2464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2465">
@@ -39892,7 +39892,7 @@
         </is>
       </c>
       <c r="D2465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466">
@@ -39908,7 +39908,7 @@
         </is>
       </c>
       <c r="D2466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467">
@@ -39924,7 +39924,7 @@
         </is>
       </c>
       <c r="D2467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468">
@@ -39940,7 +39940,7 @@
         </is>
       </c>
       <c r="D2468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2469">
@@ -39972,7 +39972,7 @@
         </is>
       </c>
       <c r="D2470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2471">
@@ -39988,7 +39988,7 @@
         </is>
       </c>
       <c r="D2471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2472">
@@ -40004,7 +40004,7 @@
         </is>
       </c>
       <c r="D2472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2473">
@@ -40020,7 +40020,7 @@
         </is>
       </c>
       <c r="D2473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2474">
@@ -40036,7 +40036,7 @@
         </is>
       </c>
       <c r="D2474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2475">
@@ -40052,7 +40052,7 @@
         </is>
       </c>
       <c r="D2475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2476">
@@ -40068,7 +40068,7 @@
         </is>
       </c>
       <c r="D2476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2477">
@@ -40100,7 +40100,7 @@
         </is>
       </c>
       <c r="D2478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2479">
@@ -40116,7 +40116,7 @@
         </is>
       </c>
       <c r="D2479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2480">
@@ -40132,7 +40132,7 @@
         </is>
       </c>
       <c r="D2480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2481">
@@ -40148,7 +40148,7 @@
         </is>
       </c>
       <c r="D2481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2482">
@@ -40164,7 +40164,7 @@
         </is>
       </c>
       <c r="D2482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2483">
@@ -40180,7 +40180,7 @@
         </is>
       </c>
       <c r="D2483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2484">
@@ -40196,7 +40196,7 @@
         </is>
       </c>
       <c r="D2484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485">
@@ -40212,7 +40212,7 @@
         </is>
       </c>
       <c r="D2485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486">
@@ -40228,7 +40228,7 @@
         </is>
       </c>
       <c r="D2486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487">
@@ -40244,7 +40244,7 @@
         </is>
       </c>
       <c r="D2487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2488">
@@ -40260,7 +40260,7 @@
         </is>
       </c>
       <c r="D2488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2489">
@@ -40276,7 +40276,7 @@
         </is>
       </c>
       <c r="D2489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2490">
@@ -40292,7 +40292,7 @@
         </is>
       </c>
       <c r="D2490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491">
@@ -40308,7 +40308,7 @@
         </is>
       </c>
       <c r="D2491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2492">
@@ -40324,7 +40324,7 @@
         </is>
       </c>
       <c r="D2492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2493">
@@ -40356,7 +40356,7 @@
         </is>
       </c>
       <c r="D2494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2495">
@@ -40372,7 +40372,7 @@
         </is>
       </c>
       <c r="D2495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496">
@@ -40388,7 +40388,7 @@
         </is>
       </c>
       <c r="D2496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497">
@@ -40404,7 +40404,7 @@
         </is>
       </c>
       <c r="D2497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498">
@@ -40420,7 +40420,7 @@
         </is>
       </c>
       <c r="D2498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499">
@@ -40436,7 +40436,7 @@
         </is>
       </c>
       <c r="D2499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500">
@@ -40452,7 +40452,7 @@
         </is>
       </c>
       <c r="D2500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501">
@@ -40484,7 +40484,7 @@
         </is>
       </c>
       <c r="D2502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2503">
@@ -40500,7 +40500,7 @@
         </is>
       </c>
       <c r="D2503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2504">
@@ -40516,7 +40516,7 @@
         </is>
       </c>
       <c r="D2504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2505">
@@ -40532,7 +40532,7 @@
         </is>
       </c>
       <c r="D2505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2506">
@@ -40548,7 +40548,7 @@
         </is>
       </c>
       <c r="D2506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2507">
@@ -40564,7 +40564,7 @@
         </is>
       </c>
       <c r="D2507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2508">
@@ -40580,7 +40580,7 @@
         </is>
       </c>
       <c r="D2508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2509">
@@ -40596,7 +40596,7 @@
         </is>
       </c>
       <c r="D2509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2510">
@@ -40612,7 +40612,7 @@
         </is>
       </c>
       <c r="D2510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2511">
@@ -40628,7 +40628,7 @@
         </is>
       </c>
       <c r="D2511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2512">
@@ -40644,7 +40644,7 @@
         </is>
       </c>
       <c r="D2512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2513">
@@ -40660,7 +40660,7 @@
         </is>
       </c>
       <c r="D2513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2514">
@@ -40676,7 +40676,7 @@
         </is>
       </c>
       <c r="D2514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2515">
@@ -40692,7 +40692,7 @@
         </is>
       </c>
       <c r="D2515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2516">
@@ -40708,7 +40708,7 @@
         </is>
       </c>
       <c r="D2516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2517">
@@ -40740,7 +40740,7 @@
         </is>
       </c>
       <c r="D2518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2519">
@@ -40756,7 +40756,7 @@
         </is>
       </c>
       <c r="D2519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2520">
@@ -40772,7 +40772,7 @@
         </is>
       </c>
       <c r="D2520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2521">
@@ -40788,7 +40788,7 @@
         </is>
       </c>
       <c r="D2521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2522">
@@ -40804,7 +40804,7 @@
         </is>
       </c>
       <c r="D2522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2523">
@@ -40820,7 +40820,7 @@
         </is>
       </c>
       <c r="D2523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2524">
@@ -40836,7 +40836,7 @@
         </is>
       </c>
       <c r="D2524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2525">
@@ -40868,7 +40868,7 @@
         </is>
       </c>
       <c r="D2526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2527">
@@ -40884,7 +40884,7 @@
         </is>
       </c>
       <c r="D2527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2528">
@@ -40900,7 +40900,7 @@
         </is>
       </c>
       <c r="D2528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2529">
@@ -40916,7 +40916,7 @@
         </is>
       </c>
       <c r="D2529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2530">
@@ -40932,7 +40932,7 @@
         </is>
       </c>
       <c r="D2530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2531">
@@ -40948,7 +40948,7 @@
         </is>
       </c>
       <c r="D2531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2532">
@@ -40964,7 +40964,7 @@
         </is>
       </c>
       <c r="D2532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2533">
@@ -40980,7 +40980,7 @@
         </is>
       </c>
       <c r="D2533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2534">
@@ -40996,7 +40996,7 @@
         </is>
       </c>
       <c r="D2534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2535">
@@ -41012,7 +41012,7 @@
         </is>
       </c>
       <c r="D2535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2536">
@@ -41028,7 +41028,7 @@
         </is>
       </c>
       <c r="D2536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2537">
@@ -41044,7 +41044,7 @@
         </is>
       </c>
       <c r="D2537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2538">
@@ -41060,7 +41060,7 @@
         </is>
       </c>
       <c r="D2538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2539">
@@ -41076,7 +41076,7 @@
         </is>
       </c>
       <c r="D2539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540">
@@ -41092,7 +41092,7 @@
         </is>
       </c>
       <c r="D2540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2541">
@@ -41124,7 +41124,7 @@
         </is>
       </c>
       <c r="D2542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2543">
@@ -41140,7 +41140,7 @@
         </is>
       </c>
       <c r="D2543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2544">
@@ -41156,7 +41156,7 @@
         </is>
       </c>
       <c r="D2544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2545">
@@ -41428,7 +41428,7 @@
         </is>
       </c>
       <c r="D2561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2562">
@@ -41556,7 +41556,7 @@
         </is>
       </c>
       <c r="D2569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2570">
@@ -41684,7 +41684,7 @@
         </is>
       </c>
       <c r="D2577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2578">
@@ -41812,7 +41812,7 @@
         </is>
       </c>
       <c r="D2585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2586">
@@ -41940,7 +41940,7 @@
         </is>
       </c>
       <c r="D2593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2594">
@@ -42324,7 +42324,7 @@
         </is>
       </c>
       <c r="D2617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2618">
@@ -44760,7 +44760,7 @@
         </is>
       </c>
       <c r="D2769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2770">
@@ -47324,7 +47324,7 @@
         </is>
       </c>
       <c r="D2929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2930">
@@ -47516,7 +47516,7 @@
         </is>
       </c>
       <c r="D2941" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2942">
@@ -47708,7 +47708,7 @@
         </is>
       </c>
       <c r="D2953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2954">
@@ -48092,7 +48092,7 @@
         </is>
       </c>
       <c r="D2977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2978">
@@ -48476,7 +48476,7 @@
         </is>
       </c>
       <c r="D3001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3002">
@@ -48860,7 +48860,7 @@
         </is>
       </c>
       <c r="D3025" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3026">
@@ -49244,7 +49244,7 @@
         </is>
       </c>
       <c r="D3049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3050">
@@ -49628,7 +49628,7 @@
         </is>
       </c>
       <c r="D3073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3074">
@@ -50012,7 +50012,7 @@
         </is>
       </c>
       <c r="D3097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3098">
@@ -50396,7 +50396,7 @@
         </is>
       </c>
       <c r="D3121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3122">
@@ -50780,7 +50780,7 @@
         </is>
       </c>
       <c r="D3145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3146">
@@ -51164,7 +51164,7 @@
         </is>
       </c>
       <c r="D3169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3170">
@@ -51420,7 +51420,7 @@
         </is>
       </c>
       <c r="D3185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3186">
@@ -51548,7 +51548,7 @@
         </is>
       </c>
       <c r="D3193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3194">
@@ -51676,7 +51676,7 @@
         </is>
       </c>
       <c r="D3201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3202">
@@ -51804,7 +51804,7 @@
         </is>
       </c>
       <c r="D3209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3210">
@@ -51932,7 +51932,7 @@
         </is>
       </c>
       <c r="D3217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218">
@@ -52060,7 +52060,7 @@
         </is>
       </c>
       <c r="D3225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3226">
@@ -52188,7 +52188,7 @@
         </is>
       </c>
       <c r="D3233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3234">
@@ -52316,7 +52316,7 @@
         </is>
       </c>
       <c r="D3241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3242">
@@ -52444,7 +52444,7 @@
         </is>
       </c>
       <c r="D3249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3250">
@@ -52508,7 +52508,7 @@
         </is>
       </c>
       <c r="D3253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3254">
@@ -52572,7 +52572,7 @@
         </is>
       </c>
       <c r="D3257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3258">
@@ -52700,7 +52700,7 @@
         </is>
       </c>
       <c r="D3265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3266">
@@ -52828,7 +52828,7 @@
         </is>
       </c>
       <c r="D3273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3274">
@@ -52892,7 +52892,7 @@
         </is>
       </c>
       <c r="D3277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3278">
@@ -52956,7 +52956,7 @@
         </is>
       </c>
       <c r="D3281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3282">
@@ -53084,7 +53084,7 @@
         </is>
       </c>
       <c r="D3289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3290">
@@ -53212,7 +53212,7 @@
         </is>
       </c>
       <c r="D3297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3298">
@@ -53276,7 +53276,7 @@
         </is>
       </c>
       <c r="D3301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3302">
@@ -53340,7 +53340,7 @@
         </is>
       </c>
       <c r="D3305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3306">
@@ -53468,7 +53468,7 @@
         </is>
       </c>
       <c r="D3313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3314">
@@ -53596,7 +53596,7 @@
         </is>
       </c>
       <c r="D3321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3322">
@@ -53660,7 +53660,7 @@
         </is>
       </c>
       <c r="D3325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3326">
@@ -53724,7 +53724,7 @@
         </is>
       </c>
       <c r="D3329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3330">
@@ -53852,7 +53852,7 @@
         </is>
       </c>
       <c r="D3337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3338">
